--- a/data/journal_data3.xlsx
+++ b/data/journal_data3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Noah\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Thesis\DATA\Stream Data Complete\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26BBC987-F839-48E1-B944-52C6AB99A23C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E1DCB51-D729-4F6E-8337-714FD1F2A98C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="6" xr2:uid="{91407D6C-13E8-42B9-915F-FB137487F523}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{91407D6C-13E8-42B9-915F-FB137487F523}"/>
   </bookViews>
   <sheets>
     <sheet name="bogue_jour_3" sheetId="1" r:id="rId1"/>
@@ -783,7 +783,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24903D8E-0E14-4F0F-9B22-7356A27F1091}">
   <dimension ref="A1:AK2"/>
   <sheetViews>
-    <sheetView topLeftCell="AA1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
       <selection activeCell="AK2" sqref="AK2"/>
     </sheetView>
   </sheetViews>
@@ -1515,7 +1515,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75D0FE00-64E3-4D7D-8ED9-1B78814FAA6E}">
   <dimension ref="A1:AK3"/>
   <sheetViews>
-    <sheetView topLeftCell="X1" workbookViewId="0">
+    <sheetView topLeftCell="R1" workbookViewId="0">
       <selection activeCell="AC3" sqref="AC3"/>
     </sheetView>
   </sheetViews>
@@ -1776,7 +1776,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B585607-458F-48FF-8556-3507235CBA3B}">
   <dimension ref="A1:AK2"/>
   <sheetViews>
-    <sheetView topLeftCell="AB1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="AC2" sqref="AC2"/>
     </sheetView>
   </sheetViews>
@@ -2020,7 +2020,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C203FA3C-591A-4085-B9A7-D242210582E0}">
   <dimension ref="A1:AK2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
+    <sheetView topLeftCell="Z1" workbookViewId="0">
       <selection activeCell="AA4" sqref="AA4"/>
     </sheetView>
   </sheetViews>
